--- a/data_year/zb/科技/按经费来源分全国研究与试验发展经费支出.xlsx
+++ b/data_year/zb/科技/按经费来源分全国研究与试验发展经费支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI20"/>
+  <dimension ref="A1:BI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -782,12 +782,16 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>708</v>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+        <v>5063.14351</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>210.99391</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>92.14268</v>
+      </c>
       <c r="AS2" t="n">
-        <v>397.5</v>
+        <v>1696.29766</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
@@ -809,7 +813,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -853,16 +857,16 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>925.4</v>
+        <v>6420.64432</v>
       </c>
       <c r="AQ3" t="n">
-        <v>123.8</v>
+        <v>267.20301</v>
       </c>
       <c r="AR3" t="n">
-        <v>30</v>
+        <v>116.19626</v>
       </c>
       <c r="AS3" t="n">
-        <v>460.6</v>
+        <v>1882.96556</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
@@ -884,7 +888,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -928,16 +932,12 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>1291.3</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>25.2</v>
-      </c>
+        <v>7625.02329</v>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="n">
-        <v>523.6</v>
+        <v>2221.39496</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
@@ -959,7 +959,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1003,16 +1003,12 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>1642.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>22.7</v>
-      </c>
+        <v>8837.700000000001</v>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="n">
-        <v>645.4</v>
+        <v>2500.57943</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
@@ -1034,7 +1030,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1078,16 +1074,12 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>2073.7</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>48.4</v>
-      </c>
+        <v>9816.510920000001</v>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="n">
-        <v>742.1</v>
+        <v>2636.08029</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
@@ -1109,7 +1101,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1153,16 +1145,12 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>2611</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>135.8</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>50</v>
-      </c>
+        <v>10588.58426</v>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
-        <v>913.5</v>
+        <v>3013.19584</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
@@ -1184,7 +1172,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1228,16 +1216,12 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>3311.52483</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>57.2</v>
-      </c>
+        <v>11923.5446</v>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="n">
-        <v>1088.89077</v>
+        <v>3140.8076</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
@@ -1259,194 +1243,78 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8.59517</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.21388</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.00585</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.81959</v>
-      </c>
-      <c r="F9" t="n">
-        <v>124.15005</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.56263</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24.84378</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.96085</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.47606</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.6942199999999999</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.01014</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.27185</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3340.61427</v>
-      </c>
-      <c r="O9" t="n">
-        <v>41.23654</v>
-      </c>
-      <c r="P9" t="n">
-        <v>33.92921</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>155.49945</v>
-      </c>
-      <c r="R9" t="n">
-        <v>13.23147</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.64128</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.2701</v>
-      </c>
-      <c r="U9" t="n">
-        <v>51.83907</v>
-      </c>
-      <c r="V9" t="n">
-        <v>129.04898</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.49517</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.14577</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4.43407</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>170.69954</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>27.59841</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>4.65286</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>248.58231</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.44508</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.22947</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.00461</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.94789</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.15479</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.13283</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.0699</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1.18893</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>33.319</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.13871</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.03168</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.66578</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>4162.71821</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>203.01551</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>78.09986000000001</v>
-      </c>
+        <v>13464.94335</v>
+      </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="n">
-        <v>1358.27095</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>123.87521</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>122.08983</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>13.96401</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>878.76149</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>42.73123</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0.04715</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>2.40592</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>164.33488</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>1.93479</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0.13197</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>3.87502</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>1.04248</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>0.01618</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0.01873</v>
-      </c>
+        <v>3487.44706</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1490,16 +1358,12 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>5063.14351</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>210.99391</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>92.14268</v>
-      </c>
+        <v>15079.29976</v>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
-        <v>1696.29766</v>
+        <v>3978.64104</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
@@ -1521,7 +1385,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1565,16 +1429,12 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>6420.64432</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>267.20301</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>116.19626</v>
-      </c>
+        <v>16887.15065</v>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
-        <v>1882.96556</v>
+        <v>4537.3</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
@@ -1596,7 +1456,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1640,12 +1500,12 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>7625.02329</v>
+        <v>18895.0319</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="n">
-        <v>2221.39496</v>
+        <v>4825.5555</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
@@ -1667,7 +1527,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1711,12 +1571,12 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>8837.700000000001</v>
+        <v>21808.8</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="n">
-        <v>2500.57943</v>
+        <v>5299.66</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
@@ -1735,503 +1595,6 @@
       <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="n">
-        <v>9816.510920000001</v>
-      </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="n">
-        <v>2636.08029</v>
-      </c>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="n">
-        <v>10588.58426</v>
-      </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="n">
-        <v>3013.19584</v>
-      </c>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="n">
-        <v>11923.5446</v>
-      </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="n">
-        <v>3140.8076</v>
-      </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="n">
-        <v>13464.94335</v>
-      </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="n">
-        <v>3487.44706</v>
-      </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="n">
-        <v>15079.29976</v>
-      </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="n">
-        <v>3978.64104</v>
-      </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="n">
-        <v>16887.15065</v>
-      </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="n">
-        <v>4537.3</v>
-      </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="n">
-        <v>18895.0319</v>
-      </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="n">
-        <v>4825.5555</v>
-      </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
